--- a/templates/QARSF/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
+++ b/templates/QARSF/RMA Complete Flow(Issue Credit)-SO TO RMA Receipt To Create Credit Memo.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>API Mode</t>
   </si>
@@ -273,6 +273,30 @@
   </si>
   <si>
     <t>RMA-JBWV-1-1</t>
+  </si>
+  <si>
+    <t>RMA-WH1N-001</t>
+  </si>
+  <si>
+    <t>RMA-WH1N-002</t>
+  </si>
+  <si>
+    <t>a6h1K000000QMWCQA4</t>
+  </si>
+  <si>
+    <t>RMA-WH1N-1-1</t>
+  </si>
+  <si>
+    <t>a6h1K000000QMWDQA4</t>
+  </si>
+  <si>
+    <t>RMA-WH1N-1-2</t>
+  </si>
+  <si>
+    <t>a6h1K000000QMWEQA4</t>
+  </si>
+  <si>
+    <t>RMA-WH1N-1-3</t>
   </si>
 </sst>
 </file>
@@ -282,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +326,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -456,7 +552,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -500,11 +596,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -530,8 +644,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1330,12 +1456,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.77734375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.9375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.49609375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="11.4921875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.05859375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.84765625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1385,10 +1511,10 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -1397,7 +1523,7 @@
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1414,10 +1540,10 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1426,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1446,7 +1572,7 @@
         <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1455,7 +1581,7 @@
         <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
